--- a/3秒で〇〇/うらします.xlsx
+++ b/3秒で〇〇/うらします.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14325"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14325" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="今井がいじった" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -100,6 +101,68 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="スマイル 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1609725" y="819150"/>
+          <a:ext cx="6505575" cy="6505575"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -367,7 +430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -387,4 +450,20 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>